--- a/database/industries/darou/deshimi/product/yearly.xlsx
+++ b/database/industries/darou/deshimi/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\deshimi\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\deshimi\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D408A8B-4534-451D-ADD6-C5B8AE074BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB1354F-7A92-4689-BC2E-D8F8C763A898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="79">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>سایر</t>
   </si>
   <si>
@@ -217,6 +217,12 @@
     <t>تنفسی</t>
   </si>
   <si>
+    <t>چشمی</t>
+  </si>
+  <si>
+    <t>سایر درآمد ارائه خدمات</t>
+  </si>
+  <si>
     <t>جمع</t>
   </si>
   <si>
@@ -242,6 +248,9 @@
   </si>
   <si>
     <t>ریال / ریال</t>
+  </si>
+  <si>
+    <t>/ ریال</t>
   </si>
   <si>
     <t>مبلغ بهای تمام شده</t>
@@ -703,16 +712,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I274"/>
+  <dimension ref="B1:I286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -722,7 +731,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -734,7 +743,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -746,7 +755,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -756,7 +765,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -768,7 +777,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -780,7 +789,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -790,7 +799,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -812,7 +821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -822,7 +831,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -839,14 +848,14 @@
       <c r="G10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="9">
+      <c r="H10" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
@@ -855,22 +864,22 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>18287</v>
+        <v>22040</v>
       </c>
       <c r="F11" s="11">
-        <v>22040</v>
+        <v>25224</v>
       </c>
       <c r="G11" s="11">
-        <v>25224</v>
+        <v>26239</v>
       </c>
       <c r="H11" s="11">
-        <v>26239</v>
+        <v>39848</v>
       </c>
       <c r="I11" s="11">
-        <v>39848</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>70125</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -879,22 +888,22 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>67729</v>
+        <v>28197</v>
       </c>
       <c r="F12" s="9">
-        <v>28197</v>
+        <v>54353</v>
       </c>
       <c r="G12" s="9">
-        <v>54353</v>
+        <v>51477</v>
       </c>
       <c r="H12" s="9">
-        <v>51477</v>
+        <v>131795</v>
       </c>
       <c r="I12" s="9">
-        <v>131795</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>120089</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -903,22 +912,22 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>62759</v>
+        <v>36864</v>
       </c>
       <c r="F13" s="11">
-        <v>36864</v>
+        <v>73070</v>
       </c>
       <c r="G13" s="11">
-        <v>73070</v>
+        <v>47481</v>
       </c>
       <c r="H13" s="11">
-        <v>47481</v>
+        <v>98315</v>
       </c>
       <c r="I13" s="11">
-        <v>98315</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>62048</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
@@ -926,8 +935,8 @@
         <v>11</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="9" t="s">
-        <v>12</v>
+      <c r="E14" s="9">
+        <v>0</v>
       </c>
       <c r="F14" s="9">
         <v>0</v>
@@ -935,14 +944,14 @@
       <c r="G14" s="9">
         <v>0</v>
       </c>
-      <c r="H14" s="9">
-        <v>0</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="9">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -951,22 +960,22 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>109377</v>
+        <v>64341</v>
       </c>
       <c r="F15" s="11">
-        <v>64341</v>
+        <v>87199</v>
       </c>
       <c r="G15" s="11">
-        <v>87199</v>
+        <v>81336</v>
       </c>
       <c r="H15" s="11">
-        <v>81336</v>
+        <v>92909</v>
       </c>
       <c r="I15" s="11">
-        <v>92909</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>143122</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -975,22 +984,22 @@
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>132963</v>
+        <v>136019</v>
       </c>
       <c r="F16" s="9">
-        <v>136019</v>
+        <v>310941</v>
       </c>
       <c r="G16" s="9">
-        <v>310941</v>
-      </c>
-      <c r="H16" s="9">
         <v>245255</v>
       </c>
+      <c r="H16" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="I16" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -1014,7 +1023,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
@@ -1038,7 +1047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -1062,7 +1071,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
@@ -1086,7 +1095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>23</v>
       </c>
@@ -1110,7 +1119,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>24</v>
       </c>
@@ -1134,7 +1143,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>25</v>
       </c>
@@ -1158,7 +1167,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>26</v>
       </c>
@@ -1182,7 +1191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>27</v>
       </c>
@@ -1206,7 +1215,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>28</v>
       </c>
@@ -1230,7 +1239,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>29</v>
       </c>
@@ -1254,7 +1263,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>30</v>
       </c>
@@ -1278,7 +1287,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>31</v>
       </c>
@@ -1302,7 +1311,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>32</v>
       </c>
@@ -1326,7 +1335,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>33</v>
       </c>
@@ -1350,7 +1359,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>34</v>
       </c>
@@ -1374,7 +1383,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>35</v>
       </c>
@@ -1398,7 +1407,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>36</v>
       </c>
@@ -1422,7 +1431,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>37</v>
       </c>
@@ -1446,7 +1455,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>38</v>
       </c>
@@ -1470,7 +1479,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>39</v>
       </c>
@@ -1494,7 +1503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>40</v>
       </c>
@@ -1518,7 +1527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>41</v>
       </c>
@@ -1542,7 +1551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>42</v>
       </c>
@@ -1566,7 +1575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>43</v>
       </c>
@@ -1590,7 +1599,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>44</v>
       </c>
@@ -1614,7 +1623,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>45</v>
       </c>
@@ -1638,7 +1647,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>46</v>
       </c>
@@ -1662,7 +1671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>47</v>
       </c>
@@ -1686,7 +1695,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>48</v>
       </c>
@@ -1710,7 +1719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>49</v>
       </c>
@@ -1734,7 +1743,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>50</v>
       </c>
@@ -1758,7 +1767,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>51</v>
       </c>
@@ -1782,7 +1791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>52</v>
       </c>
@@ -1806,7 +1815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>53</v>
       </c>
@@ -1821,14 +1830,14 @@
       <c r="G51" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H51" s="11" t="s">
-        <v>12</v>
+      <c r="H51" s="11">
+        <v>0</v>
       </c>
       <c r="I51" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>54</v>
       </c>
@@ -1852,7 +1861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>55</v>
       </c>
@@ -1876,7 +1885,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>56</v>
       </c>
@@ -1890,17 +1899,17 @@
       <c r="F54" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G54" s="9" t="s">
-        <v>12</v>
+      <c r="G54" s="9">
+        <v>23653</v>
       </c>
       <c r="H54" s="9">
-        <v>23653</v>
+        <v>14829</v>
       </c>
       <c r="I54" s="9">
-        <v>14829</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>49256</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>57</v>
       </c>
@@ -1914,17 +1923,17 @@
       <c r="F55" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G55" s="11" t="s">
-        <v>12</v>
+      <c r="G55" s="11">
+        <v>4446</v>
       </c>
       <c r="H55" s="11">
-        <v>4446</v>
+        <v>5685</v>
       </c>
       <c r="I55" s="11">
-        <v>5685</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5427</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>58</v>
       </c>
@@ -1938,17 +1947,17 @@
       <c r="F56" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G56" s="9" t="s">
-        <v>12</v>
+      <c r="G56" s="9">
+        <v>3032</v>
       </c>
       <c r="H56" s="9">
-        <v>3032</v>
+        <v>10979</v>
       </c>
       <c r="I56" s="9">
-        <v>10979</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5942</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>59</v>
       </c>
@@ -1965,14 +1974,14 @@
       <c r="G57" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H57" s="11" t="s">
-        <v>12</v>
+      <c r="H57" s="11">
+        <v>129685</v>
       </c>
       <c r="I57" s="11">
-        <v>129685</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>81295</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>60</v>
       </c>
@@ -1989,14 +1998,14 @@
       <c r="G58" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H58" s="9" t="s">
-        <v>12</v>
+      <c r="H58" s="9">
+        <v>9</v>
       </c>
       <c r="I58" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>61</v>
       </c>
@@ -2013,14 +2022,14 @@
       <c r="G59" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H59" s="11" t="s">
-        <v>12</v>
+      <c r="H59" s="11">
+        <v>17818</v>
       </c>
       <c r="I59" s="11">
-        <v>17818</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14014</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>62</v>
       </c>
@@ -2037,14 +2046,14 @@
       <c r="G60" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H60" s="9" t="s">
-        <v>12</v>
+      <c r="H60" s="9">
+        <v>13569</v>
       </c>
       <c r="I60" s="9">
-        <v>13569</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22591</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>63</v>
       </c>
@@ -2061,14 +2070,14 @@
       <c r="G61" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H61" s="11" t="s">
-        <v>12</v>
+      <c r="H61" s="11">
+        <v>10595</v>
       </c>
       <c r="I61" s="11">
-        <v>10595</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7360</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>64</v>
       </c>
@@ -2085,56 +2094,82 @@
       <c r="G62" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H62" s="9" t="s">
-        <v>12</v>
+      <c r="H62" s="9">
+        <v>19</v>
       </c>
       <c r="I62" s="9">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B63" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13">
-        <v>391115</v>
-      </c>
-      <c r="F63" s="13">
+      <c r="C63" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B64" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B65" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13">
         <v>287461</v>
       </c>
-      <c r="G63" s="13">
+      <c r="F65" s="13">
         <v>550787</v>
       </c>
-      <c r="H63" s="13">
+      <c r="G65" s="13">
         <v>482919</v>
       </c>
-      <c r="I63" s="13">
+      <c r="H65" s="13">
         <v>566055</v>
       </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I65" s="13">
+        <v>582662</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2144,29 +2179,17 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B67" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2176,225 +2199,209 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="8" t="s">
+    <row r="69" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B69" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B71" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C69" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I69" s="9">
+      <c r="C71" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="10" t="s">
+      <c r="I71" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B72" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11">
-        <v>18737</v>
-      </c>
-      <c r="F70" s="11">
-        <v>26030</v>
-      </c>
-      <c r="G70" s="11">
-        <v>25085</v>
-      </c>
-      <c r="H70" s="11">
-        <v>21459</v>
-      </c>
-      <c r="I70" s="11">
-        <v>41254</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9">
-        <v>60765</v>
-      </c>
-      <c r="F71" s="9">
-        <v>28407</v>
-      </c>
-      <c r="G71" s="9">
-        <v>52994</v>
-      </c>
-      <c r="H71" s="9">
-        <v>53508</v>
-      </c>
-      <c r="I71" s="9">
-        <v>90243</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="10" t="s">
-        <v>15</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
-        <v>62382</v>
+        <v>26030</v>
       </c>
       <c r="F72" s="11">
-        <v>39640</v>
+        <v>25085</v>
       </c>
       <c r="G72" s="11">
-        <v>73675</v>
+        <v>21459</v>
       </c>
       <c r="H72" s="11">
-        <v>40574</v>
+        <v>41254</v>
       </c>
       <c r="I72" s="11">
-        <v>66468</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>71851</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D73" s="9"/>
-      <c r="E73" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" s="9" t="s">
-        <v>12</v>
+      <c r="E73" s="9">
+        <v>28407</v>
+      </c>
+      <c r="F73" s="9">
+        <v>52994</v>
+      </c>
+      <c r="G73" s="9">
+        <v>53508</v>
       </c>
       <c r="H73" s="9">
-        <v>0</v>
-      </c>
-      <c r="I73" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>90243</v>
+      </c>
+      <c r="I73" s="9">
+        <v>96646</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C74" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11">
-        <v>113356</v>
+        <v>39640</v>
       </c>
       <c r="F74" s="11">
+        <v>73675</v>
+      </c>
+      <c r="G74" s="11">
+        <v>40574</v>
+      </c>
+      <c r="H74" s="11">
+        <v>66468</v>
+      </c>
+      <c r="I74" s="11">
+        <v>48571</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B75" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="9">
+        <v>0</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" s="9">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11">
         <v>64269</v>
       </c>
-      <c r="G74" s="11">
+      <c r="F76" s="11">
         <v>83346</v>
       </c>
-      <c r="H74" s="11">
+      <c r="G76" s="11">
         <v>86194</v>
       </c>
-      <c r="I74" s="11">
+      <c r="H76" s="11">
         <v>85779</v>
       </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="8" t="s">
+      <c r="I76" s="11">
+        <v>136221</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B77" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C75" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9">
-        <v>132867</v>
-      </c>
-      <c r="F75" s="9">
+      <c r="C77" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9">
         <v>139298</v>
       </c>
-      <c r="G75" s="9">
+      <c r="F77" s="9">
         <v>287818</v>
       </c>
-      <c r="H75" s="9">
+      <c r="G77" s="9">
         <v>220514</v>
       </c>
-      <c r="I75" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="10" t="s">
+      <c r="H77" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B78" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H76" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I76" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H77" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I77" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="10" t="s">
-        <v>21</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>11</v>
@@ -2416,9 +2423,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C79" s="9" t="s">
         <v>11</v>
@@ -2440,9 +2447,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C80" s="11" t="s">
         <v>11</v>
@@ -2464,9 +2471,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C81" s="9" t="s">
         <v>11</v>
@@ -2488,9 +2495,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C82" s="11" t="s">
         <v>11</v>
@@ -2512,9 +2519,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>11</v>
@@ -2536,9 +2543,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>11</v>
@@ -2560,9 +2567,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C85" s="9" t="s">
         <v>11</v>
@@ -2584,9 +2591,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>11</v>
@@ -2608,9 +2615,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C87" s="9" t="s">
         <v>11</v>
@@ -2632,9 +2639,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C88" s="11" t="s">
         <v>11</v>
@@ -2656,9 +2663,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C89" s="9" t="s">
         <v>11</v>
@@ -2680,9 +2687,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C90" s="11" t="s">
         <v>11</v>
@@ -2704,9 +2711,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C91" s="9" t="s">
         <v>11</v>
@@ -2728,9 +2735,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C92" s="11" t="s">
         <v>11</v>
@@ -2752,9 +2759,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C93" s="9" t="s">
         <v>11</v>
@@ -2776,9 +2783,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C94" s="11" t="s">
         <v>11</v>
@@ -2800,9 +2807,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C95" s="9" t="s">
         <v>11</v>
@@ -2824,9 +2831,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C96" s="11" t="s">
         <v>11</v>
@@ -2848,9 +2855,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C97" s="9" t="s">
         <v>11</v>
@@ -2872,9 +2879,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C98" s="11" t="s">
         <v>11</v>
@@ -2896,9 +2903,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C99" s="9" t="s">
         <v>11</v>
@@ -2920,9 +2927,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C100" s="11" t="s">
         <v>11</v>
@@ -2944,9 +2951,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C101" s="9" t="s">
         <v>11</v>
@@ -2968,9 +2975,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C102" s="11" t="s">
         <v>11</v>
@@ -2992,9 +2999,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C103" s="9" t="s">
         <v>11</v>
@@ -3016,9 +3023,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C104" s="11" t="s">
         <v>11</v>
@@ -3040,33 +3047,33 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F105" s="9">
-        <v>0</v>
-      </c>
-      <c r="G105" s="9">
-        <v>-4313</v>
-      </c>
-      <c r="H105" s="9">
-        <v>-240</v>
+      <c r="F105" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I105" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C106" s="11" t="s">
         <v>11</v>
@@ -3088,31 +3095,33 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C107" s="9"/>
+        <v>69</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="D107" s="9"/>
-      <c r="E107" s="9" t="s">
-        <v>12</v>
+      <c r="E107" s="9">
+        <v>0</v>
       </c>
       <c r="F107" s="9">
-        <v>0</v>
+        <v>-4313</v>
       </c>
       <c r="G107" s="9">
-        <v>0</v>
-      </c>
-      <c r="H107" s="9">
-        <v>0</v>
-      </c>
-      <c r="I107" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-240</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I107" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C108" s="11" t="s">
         <v>11</v>
@@ -3134,33 +3143,31 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>11</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C109" s="9"/>
       <c r="D109" s="9"/>
-      <c r="E109" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H109" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I109" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E109" s="9">
+        <v>0</v>
+      </c>
+      <c r="F109" s="9">
+        <v>0</v>
+      </c>
+      <c r="G109" s="9">
+        <v>0</v>
+      </c>
+      <c r="H109" s="9">
+        <v>0</v>
+      </c>
+      <c r="I109" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C110" s="11" t="s">
         <v>11</v>
@@ -3175,16 +3182,16 @@
       <c r="G110" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H110" s="11">
-        <v>19922</v>
-      </c>
-      <c r="I110" s="11">
-        <v>10331</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H110" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I110" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C111" s="9" t="s">
         <v>11</v>
@@ -3199,16 +3206,16 @@
       <c r="G111" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H111" s="9">
-        <v>4446</v>
-      </c>
-      <c r="I111" s="9">
-        <v>3410</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H111" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I111" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C112" s="11" t="s">
         <v>11</v>
@@ -3220,19 +3227,19 @@
       <c r="F112" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G112" s="11" t="s">
-        <v>12</v>
+      <c r="G112" s="11">
+        <v>19922</v>
       </c>
       <c r="H112" s="11">
-        <v>4231</v>
+        <v>10331</v>
       </c>
       <c r="I112" s="11">
-        <v>9565</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+        <v>38166</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C113" s="9" t="s">
         <v>11</v>
@@ -3244,19 +3251,19 @@
       <c r="F113" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G113" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H113" s="9" t="s">
-        <v>12</v>
+      <c r="G113" s="9">
+        <v>4446</v>
+      </c>
+      <c r="H113" s="9">
+        <v>3410</v>
       </c>
       <c r="I113" s="9">
-        <v>104140</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6104</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C114" s="11" t="s">
         <v>11</v>
@@ -3268,19 +3275,19 @@
       <c r="F114" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G114" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H114" s="11" t="s">
-        <v>12</v>
+      <c r="G114" s="11">
+        <v>4231</v>
+      </c>
+      <c r="H114" s="11">
+        <v>9565</v>
       </c>
       <c r="I114" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C115" s="9" t="s">
         <v>11</v>
@@ -3295,16 +3302,16 @@
       <c r="G115" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H115" s="9" t="s">
-        <v>12</v>
+      <c r="H115" s="9">
+        <v>104140</v>
       </c>
       <c r="I115" s="9">
-        <v>17691</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+        <v>88038</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C116" s="11" t="s">
         <v>11</v>
@@ -3319,16 +3326,16 @@
       <c r="G116" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H116" s="11" t="s">
-        <v>12</v>
+      <c r="H116" s="11">
+        <v>8</v>
       </c>
       <c r="I116" s="11">
-        <v>15288</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C117" s="9" t="s">
         <v>11</v>
@@ -3343,16 +3350,16 @@
       <c r="G117" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H117" s="9" t="s">
-        <v>12</v>
+      <c r="H117" s="9">
+        <v>17691</v>
       </c>
       <c r="I117" s="9">
-        <v>7040</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14107</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C118" s="11" t="s">
         <v>11</v>
@@ -3367,88 +3374,130 @@
       <c r="G118" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H118" s="11" t="s">
-        <v>12</v>
+      <c r="H118" s="11">
+        <v>15288</v>
       </c>
       <c r="I118" s="11">
+        <v>20195</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B119" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H119" s="9">
+        <v>7040</v>
+      </c>
+      <c r="I119" s="9">
+        <v>7370</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B120" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H120" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B119" s="14" t="s">
+      <c r="I120" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B121" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C119" s="15"/>
-      <c r="D119" s="15"/>
-      <c r="E119" s="15">
-        <v>388107</v>
-      </c>
-      <c r="F119" s="15">
+      <c r="C121" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H121" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I121" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B122" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H122" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I122" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B123" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C123" s="15"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="15">
         <v>297644</v>
       </c>
-      <c r="G119" s="15">
+      <c r="F123" s="15">
         <v>518605</v>
       </c>
-      <c r="H119" s="15">
+      <c r="G123" s="15">
         <v>450608</v>
       </c>
-      <c r="I119" s="15">
+      <c r="H123" s="15">
         <v>451217</v>
       </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B123" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F123" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G123" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H123" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I123" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I123" s="15">
+        <v>530914</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -3458,108 +3507,64 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B125" s="8" t="s">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+    </row>
+    <row r="127" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B127" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H127" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I127" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B129" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C125" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F125" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G125" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H125" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I125" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B126" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C126" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D126" s="11"/>
-      <c r="E126" s="11">
-        <v>45759</v>
-      </c>
-      <c r="F126" s="11">
-        <v>59624</v>
-      </c>
-      <c r="G126" s="11">
-        <v>74180</v>
-      </c>
-      <c r="H126" s="11">
-        <v>92885</v>
-      </c>
-      <c r="I126" s="11">
-        <v>227772</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B127" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C127" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9">
-        <v>73083</v>
-      </c>
-      <c r="F127" s="9">
-        <v>54382</v>
-      </c>
-      <c r="G127" s="9">
-        <v>98998</v>
-      </c>
-      <c r="H127" s="9">
-        <v>189961</v>
-      </c>
-      <c r="I127" s="9">
-        <v>667487</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B128" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C128" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D128" s="11"/>
-      <c r="E128" s="11">
-        <v>160402</v>
-      </c>
-      <c r="F128" s="11">
-        <v>199388</v>
-      </c>
-      <c r="G128" s="11">
-        <v>435211</v>
-      </c>
-      <c r="H128" s="11">
-        <v>306951</v>
-      </c>
-      <c r="I128" s="11">
-        <v>782870</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B129" s="8" t="s">
-        <v>16</v>
-      </c>
       <c r="C129" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9" t="s">
@@ -3578,84 +3583,84 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="11">
-        <v>530169</v>
+        <v>59624</v>
       </c>
       <c r="F130" s="11">
-        <v>487078</v>
+        <v>74180</v>
       </c>
       <c r="G130" s="11">
-        <v>721219</v>
+        <v>92885</v>
       </c>
       <c r="H130" s="11">
-        <v>878067</v>
+        <v>227772</v>
       </c>
       <c r="I130" s="11">
-        <v>1205361</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+        <v>485823</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9">
-        <v>279270</v>
+        <v>54382</v>
       </c>
       <c r="F131" s="9">
-        <v>354874</v>
+        <v>98998</v>
       </c>
       <c r="G131" s="9">
-        <v>436802</v>
+        <v>189961</v>
       </c>
       <c r="H131" s="9">
-        <v>752255</v>
-      </c>
-      <c r="I131" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+        <v>667487</v>
+      </c>
+      <c r="I131" s="9">
+        <v>964231</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D132" s="11"/>
-      <c r="E132" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F132" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G132" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H132" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I132" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E132" s="11">
+        <v>199388</v>
+      </c>
+      <c r="F132" s="11">
+        <v>435211</v>
+      </c>
+      <c r="G132" s="11">
+        <v>306951</v>
+      </c>
+      <c r="H132" s="11">
+        <v>782870</v>
+      </c>
+      <c r="I132" s="11">
+        <v>875785</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9" t="s">
@@ -3664,56 +3669,56 @@
       <c r="F133" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G133" s="9" t="s">
-        <v>12</v>
+      <c r="G133" s="9">
+        <v>0</v>
       </c>
       <c r="H133" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I133" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I133" s="9">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D134" s="11"/>
-      <c r="E134" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F134" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G134" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H134" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I134" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E134" s="11">
+        <v>487078</v>
+      </c>
+      <c r="F134" s="11">
+        <v>721219</v>
+      </c>
+      <c r="G134" s="11">
+        <v>878067</v>
+      </c>
+      <c r="H134" s="11">
+        <v>1205361</v>
+      </c>
+      <c r="I134" s="11">
+        <v>5343198</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D135" s="9"/>
-      <c r="E135" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F135" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G135" s="9" t="s">
-        <v>12</v>
+      <c r="E135" s="9">
+        <v>354874</v>
+      </c>
+      <c r="F135" s="9">
+        <v>436802</v>
+      </c>
+      <c r="G135" s="9">
+        <v>752255</v>
       </c>
       <c r="H135" s="9" t="s">
         <v>12</v>
@@ -3722,12 +3727,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11" t="s">
@@ -3746,12 +3751,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9" t="s">
@@ -3770,12 +3775,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11" t="s">
@@ -3794,12 +3799,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9" t="s">
@@ -3818,12 +3823,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D140" s="11"/>
       <c r="E140" s="11" t="s">
@@ -3842,12 +3847,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9" t="s">
@@ -3866,12 +3871,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D142" s="11"/>
       <c r="E142" s="11" t="s">
@@ -3890,12 +3895,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9" t="s">
@@ -3914,12 +3919,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D144" s="11"/>
       <c r="E144" s="11" t="s">
@@ -3938,12 +3943,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9" t="s">
@@ -3962,12 +3967,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D146" s="11"/>
       <c r="E146" s="11" t="s">
@@ -3986,12 +3991,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9" t="s">
@@ -4010,12 +4015,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D148" s="11"/>
       <c r="E148" s="11" t="s">
@@ -4034,12 +4039,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D149" s="9"/>
       <c r="E149" s="9" t="s">
@@ -4058,12 +4063,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D150" s="11"/>
       <c r="E150" s="11" t="s">
@@ -4082,12 +4087,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D151" s="9"/>
       <c r="E151" s="9" t="s">
@@ -4106,12 +4111,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D152" s="11"/>
       <c r="E152" s="11" t="s">
@@ -4130,12 +4135,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B153" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D153" s="9"/>
       <c r="E153" s="9" t="s">
@@ -4154,12 +4159,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B154" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D154" s="11"/>
       <c r="E154" s="11" t="s">
@@ -4178,12 +4183,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D155" s="9"/>
       <c r="E155" s="9" t="s">
@@ -4202,12 +4207,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D156" s="11"/>
       <c r="E156" s="11" t="s">
@@ -4226,12 +4231,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D157" s="9"/>
       <c r="E157" s="9" t="s">
@@ -4250,12 +4255,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D158" s="11"/>
       <c r="E158" s="11" t="s">
@@ -4274,12 +4279,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D159" s="9"/>
       <c r="E159" s="9" t="s">
@@ -4298,12 +4303,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D160" s="11"/>
       <c r="E160" s="11" t="s">
@@ -4322,36 +4327,36 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D161" s="9"/>
       <c r="E161" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F161" s="9">
-        <v>0</v>
-      </c>
-      <c r="G161" s="9">
-        <v>-29569</v>
-      </c>
-      <c r="H161" s="9">
-        <v>-2048</v>
+      <c r="F161" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G161" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H161" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I161" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D162" s="11"/>
       <c r="E162" s="11" t="s">
@@ -4370,36 +4375,36 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D163" s="9"/>
       <c r="E163" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F163" s="9">
-        <v>0</v>
-      </c>
-      <c r="G163" s="9">
-        <v>0</v>
-      </c>
-      <c r="H163" s="9">
-        <v>0</v>
-      </c>
-      <c r="I163" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F163" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G163" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H163" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I163" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D164" s="11"/>
       <c r="E164" s="11" t="s">
@@ -4418,22 +4423,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D165" s="9"/>
-      <c r="E165" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F165" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G165" s="9" t="s">
-        <v>12</v>
+      <c r="E165" s="9">
+        <v>0</v>
+      </c>
+      <c r="F165" s="9">
+        <v>-29569</v>
+      </c>
+      <c r="G165" s="9">
+        <v>-2048</v>
       </c>
       <c r="H165" s="9" t="s">
         <v>12</v>
@@ -4442,12 +4447,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D166" s="11"/>
       <c r="E166" s="11" t="s">
@@ -4459,43 +4464,43 @@
       <c r="G166" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H166" s="11">
-        <v>74287</v>
-      </c>
-      <c r="I166" s="11">
-        <v>68907</v>
-      </c>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H166" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I166" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B167" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D167" s="9"/>
-      <c r="E167" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F167" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G167" s="9" t="s">
-        <v>12</v>
+      <c r="E167" s="9">
+        <v>0</v>
+      </c>
+      <c r="F167" s="9">
+        <v>0</v>
+      </c>
+      <c r="G167" s="9">
+        <v>0</v>
       </c>
       <c r="H167" s="9">
-        <v>47458</v>
+        <v>0</v>
       </c>
       <c r="I167" s="9">
-        <v>124767</v>
-      </c>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B168" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D168" s="11"/>
       <c r="E168" s="11" t="s">
@@ -4507,19 +4512,19 @@
       <c r="G168" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H168" s="11">
-        <v>101180</v>
-      </c>
-      <c r="I168" s="11">
-        <v>343667</v>
-      </c>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H168" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I168" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B169" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D169" s="9"/>
       <c r="E169" s="9" t="s">
@@ -4534,16 +4539,16 @@
       <c r="H169" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I169" s="9">
-        <v>576762</v>
-      </c>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I169" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B170" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D170" s="11"/>
       <c r="E170" s="11" t="s">
@@ -4552,22 +4557,22 @@
       <c r="F170" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G170" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H170" s="11" t="s">
-        <v>12</v>
+      <c r="G170" s="11">
+        <v>74287</v>
+      </c>
+      <c r="H170" s="11">
+        <v>68907</v>
       </c>
       <c r="I170" s="11">
-        <v>10010</v>
-      </c>
-    </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+        <v>448790</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B171" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D171" s="9"/>
       <c r="E171" s="9" t="s">
@@ -4576,22 +4581,22 @@
       <c r="F171" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G171" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H171" s="9" t="s">
-        <v>12</v>
+      <c r="G171" s="9">
+        <v>47458</v>
+      </c>
+      <c r="H171" s="9">
+        <v>124767</v>
       </c>
       <c r="I171" s="9">
-        <v>60706</v>
-      </c>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+        <v>336663</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B172" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D172" s="11"/>
       <c r="E172" s="11" t="s">
@@ -4600,22 +4605,22 @@
       <c r="F172" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G172" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H172" s="11" t="s">
-        <v>12</v>
+      <c r="G172" s="11">
+        <v>101180</v>
+      </c>
+      <c r="H172" s="11">
+        <v>343667</v>
       </c>
       <c r="I172" s="11">
-        <v>223751</v>
-      </c>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+        <v>206322</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B173" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D173" s="9"/>
       <c r="E173" s="9" t="s">
@@ -4627,19 +4632,19 @@
       <c r="G173" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H173" s="9" t="s">
-        <v>12</v>
+      <c r="H173" s="9">
+        <v>576762</v>
       </c>
       <c r="I173" s="9">
-        <v>5251</v>
-      </c>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+        <v>697650</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B174" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D174" s="11"/>
       <c r="E174" s="11" t="s">
@@ -4651,343 +4656,343 @@
       <c r="G174" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H174" s="11" t="s">
-        <v>12</v>
+      <c r="H174" s="11">
+        <v>10010</v>
       </c>
       <c r="I174" s="11">
+        <v>17875</v>
+      </c>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B175" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D175" s="9"/>
+      <c r="E175" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F175" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G175" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H175" s="9">
+        <v>60706</v>
+      </c>
+      <c r="I175" s="9">
+        <v>135928</v>
+      </c>
+    </row>
+    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B176" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D176" s="11"/>
+      <c r="E176" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F176" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G176" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H176" s="11">
+        <v>223751</v>
+      </c>
+      <c r="I176" s="11">
+        <v>293497</v>
+      </c>
+    </row>
+    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B177" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D177" s="9"/>
+      <c r="E177" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F177" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G177" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H177" s="9">
+        <v>5251</v>
+      </c>
+      <c r="I177" s="9">
+        <v>6631</v>
+      </c>
+    </row>
+    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B178" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C178" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D178" s="11"/>
+      <c r="E178" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F178" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G178" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H178" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B175" s="14" t="s">
+      <c r="I178" s="11">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B179" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C175" s="15"/>
-      <c r="D175" s="15"/>
-      <c r="E175" s="15">
-        <v>1088683</v>
-      </c>
-      <c r="F175" s="15">
+      <c r="C179" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D179" s="9"/>
+      <c r="E179" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F179" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G179" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H179" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I179" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B180" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C180" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D180" s="11"/>
+      <c r="E180" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F180" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G180" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H180" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I180" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B181" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C181" s="15"/>
+      <c r="D181" s="15"/>
+      <c r="E181" s="15">
         <v>1155346</v>
       </c>
-      <c r="G175" s="15">
+      <c r="F181" s="15">
         <v>1736841</v>
       </c>
-      <c r="H175" s="15">
+      <c r="G181" s="15">
         <v>2440996</v>
       </c>
-      <c r="I175" s="15">
+      <c r="H181" s="15">
         <v>4297311</v>
       </c>
-    </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
-      <c r="G176" s="1"/>
-      <c r="H176" s="1"/>
-      <c r="I176" s="1"/>
-    </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
-      <c r="G177" s="1"/>
-      <c r="H177" s="1"/>
-      <c r="I177" s="1"/>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
-      <c r="G178" s="1"/>
-      <c r="H178" s="1"/>
-      <c r="I178" s="1"/>
-    </row>
-    <row r="179" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B179" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C179" s="6"/>
-      <c r="D179" s="6"/>
-      <c r="E179" s="6" t="s">
+      <c r="I181" s="15">
+        <v>9819805</v>
+      </c>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
+      <c r="I182" s="1"/>
+    </row>
+    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
+    </row>
+    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
+      <c r="I184" s="1"/>
+    </row>
+    <row r="185" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B185" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C185" s="6"/>
+      <c r="D185" s="6"/>
+      <c r="E185" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F179" s="6" t="s">
+      <c r="F185" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G179" s="6" t="s">
+      <c r="G185" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H179" s="6" t="s">
+      <c r="H185" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I179" s="6" t="s">
+      <c r="I185" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
-      <c r="G180" s="1"/>
-      <c r="H180" s="1"/>
-      <c r="I180" s="1"/>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B181" s="8" t="s">
+    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+      <c r="H186" s="1"/>
+      <c r="I186" s="1"/>
+    </row>
+    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B187" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C181" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D181" s="9"/>
-      <c r="E181" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F181" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G181" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H181" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I181" s="9">
+      <c r="C187" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D187" s="9"/>
+      <c r="E187" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F187" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G187" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H187" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B182" s="10" t="s">
+      <c r="I187" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B188" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C182" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D182" s="11"/>
-      <c r="E182" s="11">
-        <v>2442173</v>
-      </c>
-      <c r="F182" s="11">
+      <c r="C188" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D188" s="11"/>
+      <c r="E188" s="11">
         <v>2290588</v>
       </c>
-      <c r="G182" s="11">
+      <c r="F188" s="11">
         <v>2957146</v>
       </c>
-      <c r="H182" s="11">
+      <c r="G188" s="11">
         <v>4328487</v>
       </c>
-      <c r="I182" s="11">
+      <c r="H188" s="11">
         <v>5521210</v>
       </c>
-    </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B183" s="8" t="s">
+      <c r="I188" s="11">
+        <v>6761534</v>
+      </c>
+    </row>
+    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B189" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C183" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D183" s="9"/>
-      <c r="E183" s="9">
-        <v>1202715</v>
-      </c>
-      <c r="F183" s="9">
+      <c r="C189" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D189" s="9"/>
+      <c r="E189" s="9">
         <v>1914387</v>
       </c>
-      <c r="G183" s="9">
+      <c r="F189" s="9">
         <v>1868098</v>
       </c>
-      <c r="H183" s="9">
+      <c r="G189" s="9">
         <v>3550142</v>
       </c>
-      <c r="I183" s="9">
+      <c r="H189" s="9">
         <v>7396552</v>
       </c>
-    </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B184" s="10" t="s">
+      <c r="I189" s="9">
+        <v>9976936</v>
+      </c>
+    </row>
+    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B190" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C184" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D184" s="11"/>
-      <c r="E184" s="11">
-        <v>2571287</v>
-      </c>
-      <c r="F184" s="11">
+      <c r="C190" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D190" s="11"/>
+      <c r="E190" s="11">
         <v>5029970</v>
       </c>
-      <c r="G184" s="11">
+      <c r="F190" s="11">
         <v>5907173</v>
       </c>
-      <c r="H184" s="11">
+      <c r="G190" s="11">
         <v>7565214</v>
       </c>
-      <c r="I184" s="11">
+      <c r="H190" s="11">
         <v>11778149</v>
       </c>
-    </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B185" s="8" t="s">
+      <c r="I190" s="11">
+        <v>18031027</v>
+      </c>
+    </row>
+    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B191" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C185" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D185" s="9"/>
-      <c r="E185" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F185" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G185" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H185" s="9">
-        <v>0</v>
-      </c>
-      <c r="I185" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B186" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C186" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D186" s="11"/>
-      <c r="E186" s="11">
-        <v>4677026</v>
-      </c>
-      <c r="F186" s="11">
-        <v>7578739</v>
-      </c>
-      <c r="G186" s="11">
-        <v>8653313</v>
-      </c>
-      <c r="H186" s="11">
-        <v>10187101</v>
-      </c>
-      <c r="I186" s="11">
-        <v>14051936</v>
-      </c>
-    </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B187" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C187" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D187" s="9"/>
-      <c r="E187" s="9">
-        <v>2101876</v>
-      </c>
-      <c r="F187" s="9">
-        <v>2547589</v>
-      </c>
-      <c r="G187" s="9">
-        <v>1517633</v>
-      </c>
-      <c r="H187" s="9">
-        <v>3411371</v>
-      </c>
-      <c r="I187" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B188" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C188" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D188" s="11"/>
-      <c r="E188" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F188" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G188" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H188" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I188" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B189" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C189" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D189" s="9"/>
-      <c r="E189" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F189" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G189" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H189" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I189" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B190" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C190" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D190" s="11"/>
-      <c r="E190" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F190" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G190" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H190" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I190" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B191" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="C191" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D191" s="9"/>
       <c r="E191" s="9" t="s">
@@ -4996,56 +5001,56 @@
       <c r="F191" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G191" s="9" t="s">
-        <v>12</v>
+      <c r="G191" s="9">
+        <v>0</v>
       </c>
       <c r="H191" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I191" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I191" s="9">
+        <v>2499638</v>
+      </c>
+    </row>
+    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B192" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D192" s="11"/>
-      <c r="E192" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F192" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G192" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H192" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I192" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E192" s="11">
+        <v>7578739</v>
+      </c>
+      <c r="F192" s="11">
+        <v>8653313</v>
+      </c>
+      <c r="G192" s="11">
+        <v>10187101</v>
+      </c>
+      <c r="H192" s="11">
+        <v>14051936</v>
+      </c>
+      <c r="I192" s="11">
+        <v>39224481</v>
+      </c>
+    </row>
+    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B193" s="8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D193" s="9"/>
-      <c r="E193" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F193" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G193" s="9" t="s">
-        <v>12</v>
+      <c r="E193" s="9">
+        <v>2547589</v>
+      </c>
+      <c r="F193" s="9">
+        <v>1517633</v>
+      </c>
+      <c r="G193" s="9">
+        <v>3411371</v>
       </c>
       <c r="H193" s="9" t="s">
         <v>12</v>
@@ -5054,12 +5059,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B194" s="10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D194" s="11"/>
       <c r="E194" s="11" t="s">
@@ -5078,12 +5083,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B195" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D195" s="9"/>
       <c r="E195" s="9" t="s">
@@ -5102,12 +5107,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B196" s="10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D196" s="11"/>
       <c r="E196" s="11" t="s">
@@ -5126,12 +5131,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B197" s="8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D197" s="9"/>
       <c r="E197" s="9" t="s">
@@ -5150,12 +5155,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B198" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D198" s="11"/>
       <c r="E198" s="11" t="s">
@@ -5174,12 +5179,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B199" s="8" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D199" s="9"/>
       <c r="E199" s="9" t="s">
@@ -5198,12 +5203,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B200" s="10" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D200" s="11"/>
       <c r="E200" s="11" t="s">
@@ -5222,12 +5227,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B201" s="8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D201" s="9"/>
       <c r="E201" s="9" t="s">
@@ -5246,12 +5251,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B202" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D202" s="11"/>
       <c r="E202" s="11" t="s">
@@ -5270,12 +5275,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B203" s="8" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D203" s="9"/>
       <c r="E203" s="9" t="s">
@@ -5294,12 +5299,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B204" s="10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D204" s="11"/>
       <c r="E204" s="11" t="s">
@@ -5318,12 +5323,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B205" s="8" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D205" s="9"/>
       <c r="E205" s="9" t="s">
@@ -5342,12 +5347,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B206" s="10" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D206" s="11"/>
       <c r="E206" s="11" t="s">
@@ -5366,12 +5371,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B207" s="8" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D207" s="9"/>
       <c r="E207" s="9" t="s">
@@ -5390,12 +5395,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B208" s="10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D208" s="11"/>
       <c r="E208" s="11" t="s">
@@ -5414,12 +5419,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B209" s="8" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D209" s="9"/>
       <c r="E209" s="9" t="s">
@@ -5438,12 +5443,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B210" s="10" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D210" s="11"/>
       <c r="E210" s="11" t="s">
@@ -5462,12 +5467,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B211" s="8" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D211" s="9"/>
       <c r="E211" s="9" t="s">
@@ -5486,12 +5491,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B212" s="10" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C212" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D212" s="11"/>
       <c r="E212" s="11" t="s">
@@ -5510,36 +5515,36 @@
         <v>12</v>
       </c>
     </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B213" s="8" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C213" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D213" s="9"/>
       <c r="E213" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F213" s="9">
-        <v>0</v>
-      </c>
-      <c r="G213" s="9">
-        <v>0</v>
-      </c>
-      <c r="H213" s="9">
-        <v>0</v>
+      <c r="F213" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G213" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H213" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I213" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B214" s="10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D214" s="11"/>
       <c r="E214" s="11" t="s">
@@ -5558,36 +5563,36 @@
         <v>12</v>
       </c>
     </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B215" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C215" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D215" s="9"/>
       <c r="E215" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F215" s="9">
-        <v>0</v>
-      </c>
-      <c r="G215" s="9">
-        <v>0</v>
-      </c>
-      <c r="H215" s="9">
-        <v>0</v>
-      </c>
-      <c r="I215" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F215" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G215" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H215" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I215" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="216" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B216" s="10" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C216" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D216" s="11"/>
       <c r="E216" s="11" t="s">
@@ -5606,12 +5611,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B217" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C217" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D217" s="9"/>
       <c r="E217" s="9" t="s">
@@ -5630,12 +5635,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B218" s="10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C218" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D218" s="11"/>
       <c r="E218" s="11" t="s">
@@ -5647,43 +5652,43 @@
       <c r="G218" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H218" s="11">
-        <v>3728893</v>
-      </c>
-      <c r="I218" s="11">
-        <v>6669925</v>
-      </c>
-    </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H218" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I218" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="219" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B219" s="8" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C219" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D219" s="9"/>
-      <c r="E219" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F219" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G219" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H219" s="9">
-        <v>10674314</v>
-      </c>
-      <c r="I219" s="9">
-        <v>36588563</v>
-      </c>
-    </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E219" s="9">
+        <v>0</v>
+      </c>
+      <c r="F219" s="9">
+        <v>0</v>
+      </c>
+      <c r="G219" s="9">
+        <v>0</v>
+      </c>
+      <c r="H219" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I219" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="220" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B220" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C220" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D220" s="11"/>
       <c r="E220" s="11" t="s">
@@ -5695,43 +5700,43 @@
       <c r="G220" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H220" s="11">
-        <v>23913968</v>
-      </c>
-      <c r="I220" s="11">
-        <v>35929639</v>
-      </c>
-    </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H220" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I220" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="221" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B221" s="8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C221" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D221" s="9"/>
-      <c r="E221" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F221" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G221" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H221" s="9" t="s">
-        <v>12</v>
+      <c r="E221" s="9">
+        <v>0</v>
+      </c>
+      <c r="F221" s="9">
+        <v>0</v>
+      </c>
+      <c r="G221" s="9">
+        <v>0</v>
+      </c>
+      <c r="H221" s="9">
+        <v>0</v>
       </c>
       <c r="I221" s="9">
-        <v>5538333</v>
-      </c>
-    </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B222" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C222" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D222" s="11"/>
       <c r="E222" s="11" t="s">
@@ -5746,16 +5751,16 @@
       <c r="H222" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I222" s="11">
-        <v>1251250000</v>
-      </c>
-    </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I222" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="223" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B223" s="8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C223" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D223" s="9"/>
       <c r="E223" s="9" t="s">
@@ -5770,16 +5775,16 @@
       <c r="H223" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I223" s="9">
-        <v>3431462</v>
-      </c>
-    </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I223" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="224" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B224" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C224" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D224" s="11"/>
       <c r="E224" s="11" t="s">
@@ -5788,22 +5793,22 @@
       <c r="F224" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G224" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H224" s="11" t="s">
-        <v>12</v>
+      <c r="G224" s="11">
+        <v>3728893</v>
+      </c>
+      <c r="H224" s="11">
+        <v>6669925</v>
       </c>
       <c r="I224" s="11">
-        <v>14635727</v>
-      </c>
-    </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11758895</v>
+      </c>
+    </row>
+    <row r="225" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B225" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C225" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D225" s="9"/>
       <c r="E225" s="9" t="s">
@@ -5812,22 +5817,22 @@
       <c r="F225" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G225" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H225" s="9" t="s">
-        <v>12</v>
+      <c r="G225" s="9">
+        <v>10674314</v>
+      </c>
+      <c r="H225" s="9">
+        <v>36588563</v>
       </c>
       <c r="I225" s="9">
-        <v>745881</v>
-      </c>
-    </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
+        <v>55154489</v>
+      </c>
+    </row>
+    <row r="226" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B226" s="10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C226" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D226" s="11"/>
       <c r="E226" s="11" t="s">
@@ -5836,372 +5841,372 @@
       <c r="F226" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G226" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H226" s="11" t="s">
-        <v>12</v>
+      <c r="G226" s="11">
+        <v>23913968</v>
+      </c>
+      <c r="H226" s="11">
+        <v>35929639</v>
       </c>
       <c r="I226" s="11">
+        <v>91780249</v>
+      </c>
+    </row>
+    <row r="227" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B227" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C227" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D227" s="9"/>
+      <c r="E227" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F227" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G227" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H227" s="9">
+        <v>5538333</v>
+      </c>
+      <c r="I227" s="9">
+        <v>7924419</v>
+      </c>
+    </row>
+    <row r="228" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B228" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C228" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D228" s="11"/>
+      <c r="E228" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F228" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G228" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H228" s="11">
+        <v>1251250000</v>
+      </c>
+      <c r="I228" s="11">
+        <v>1324074074</v>
+      </c>
+    </row>
+    <row r="229" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B229" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C229" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D229" s="9"/>
+      <c r="E229" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F229" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G229" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H229" s="9">
+        <v>3431462</v>
+      </c>
+      <c r="I229" s="9">
+        <v>9635500</v>
+      </c>
+    </row>
+    <row r="230" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B230" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C230" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D230" s="11"/>
+      <c r="E230" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F230" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G230" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H230" s="11">
+        <v>14635727</v>
+      </c>
+      <c r="I230" s="11">
+        <v>14533152</v>
+      </c>
+    </row>
+    <row r="231" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B231" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C231" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D231" s="9"/>
+      <c r="E231" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F231" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G231" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H231" s="9">
+        <v>745881</v>
+      </c>
+      <c r="I231" s="9">
+        <v>899729</v>
+      </c>
+    </row>
+    <row r="232" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B232" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C232" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D232" s="11"/>
+      <c r="E232" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F232" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G232" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H232" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B227" s="1"/>
-      <c r="C227" s="1"/>
-      <c r="D227" s="1"/>
-      <c r="E227" s="1"/>
-      <c r="F227" s="1"/>
-      <c r="G227" s="1"/>
-      <c r="H227" s="1"/>
-      <c r="I227" s="1"/>
-    </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B228" s="1"/>
-      <c r="C228" s="1"/>
-      <c r="D228" s="1"/>
-      <c r="E228" s="1"/>
-      <c r="F228" s="1"/>
-      <c r="G228" s="1"/>
-      <c r="H228" s="1"/>
-      <c r="I228" s="1"/>
-    </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B229" s="1"/>
-      <c r="C229" s="1"/>
-      <c r="D229" s="1"/>
-      <c r="E229" s="1"/>
-      <c r="F229" s="1"/>
-      <c r="G229" s="1"/>
-      <c r="H229" s="1"/>
-      <c r="I229" s="1"/>
-    </row>
-    <row r="230" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B230" s="7" t="s">
+      <c r="I232" s="11">
+        <v>1980000000</v>
+      </c>
+    </row>
+    <row r="233" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B233" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C233" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C230" s="6"/>
-      <c r="D230" s="6"/>
-      <c r="E230" s="6" t="s">
+      <c r="D233" s="9"/>
+      <c r="E233" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F233" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G233" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H233" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I233" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B234" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C234" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D234" s="11"/>
+      <c r="E234" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F234" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G234" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H234" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I234" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="1"/>
+      <c r="F235" s="1"/>
+      <c r="G235" s="1"/>
+      <c r="H235" s="1"/>
+      <c r="I235" s="1"/>
+    </row>
+    <row r="236" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="1"/>
+      <c r="F236" s="1"/>
+      <c r="G236" s="1"/>
+      <c r="H236" s="1"/>
+      <c r="I236" s="1"/>
+    </row>
+    <row r="237" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="1"/>
+      <c r="F237" s="1"/>
+      <c r="G237" s="1"/>
+      <c r="H237" s="1"/>
+      <c r="I237" s="1"/>
+    </row>
+    <row r="238" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B238" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C238" s="6"/>
+      <c r="D238" s="6"/>
+      <c r="E238" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F230" s="6" t="s">
+      <c r="F238" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G230" s="6" t="s">
+      <c r="G238" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H230" s="6" t="s">
+      <c r="H238" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I230" s="6" t="s">
+      <c r="I238" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B231" s="1"/>
-      <c r="C231" s="1"/>
-      <c r="D231" s="1"/>
-      <c r="E231" s="1"/>
-      <c r="F231" s="1"/>
-      <c r="G231" s="1"/>
-      <c r="H231" s="1"/>
-      <c r="I231" s="1"/>
-    </row>
-    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B232" s="8" t="s">
+    <row r="239" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="1"/>
+      <c r="F239" s="1"/>
+      <c r="G239" s="1"/>
+      <c r="H239" s="1"/>
+      <c r="I239" s="1"/>
+    </row>
+    <row r="240" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B240" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C232" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D232" s="9"/>
-      <c r="E232" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F232" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G232" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H232" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I232" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B233" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C233" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D233" s="11"/>
-      <c r="E233" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F233" s="11">
-        <v>-24252</v>
-      </c>
-      <c r="G233" s="11">
-        <v>-27234</v>
-      </c>
-      <c r="H233" s="11">
-        <v>-32812</v>
-      </c>
-      <c r="I233" s="11">
-        <v>-109437</v>
-      </c>
-    </row>
-    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B234" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C234" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D234" s="9"/>
-      <c r="E234" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F234" s="9">
-        <v>-35821</v>
-      </c>
-      <c r="G234" s="9">
-        <v>-43225</v>
-      </c>
-      <c r="H234" s="9">
-        <v>-94981</v>
-      </c>
-      <c r="I234" s="9">
-        <v>-346434</v>
-      </c>
-    </row>
-    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B235" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C235" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D235" s="11"/>
-      <c r="E235" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F235" s="11">
-        <v>-133602</v>
-      </c>
-      <c r="G235" s="11">
-        <v>-263990</v>
-      </c>
-      <c r="H235" s="11">
-        <v>-202828</v>
-      </c>
-      <c r="I235" s="11">
-        <v>-373765</v>
-      </c>
-    </row>
-    <row r="236" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B236" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C236" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D236" s="9"/>
-      <c r="E236" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F236" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G236" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H236" s="9">
-        <v>0</v>
-      </c>
-      <c r="I236" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B237" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C237" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D237" s="11"/>
-      <c r="E237" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F237" s="11">
-        <v>-358403</v>
-      </c>
-      <c r="G237" s="11">
-        <v>-479971</v>
-      </c>
-      <c r="H237" s="11">
-        <v>-480224</v>
-      </c>
-      <c r="I237" s="11">
-        <v>-649270</v>
-      </c>
-    </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B238" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C238" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D238" s="9"/>
-      <c r="E238" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F238" s="9">
-        <v>-242025</v>
-      </c>
-      <c r="G238" s="9">
-        <v>-247408</v>
-      </c>
-      <c r="H238" s="9">
-        <v>-259080</v>
-      </c>
-      <c r="I238" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B239" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C239" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D239" s="11"/>
-      <c r="E239" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F239" s="11">
-        <v>0</v>
-      </c>
-      <c r="G239" s="11">
-        <v>0</v>
-      </c>
-      <c r="H239" s="11">
-        <v>1200</v>
-      </c>
-      <c r="I239" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B240" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="C240" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D240" s="9"/>
       <c r="E240" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F240" s="9">
-        <v>0</v>
-      </c>
-      <c r="G240" s="9">
-        <v>0</v>
+      <c r="F240" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G240" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="H240" s="9">
         <v>0</v>
       </c>
-      <c r="I240" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I240" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="241" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B241" s="10" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="C241" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D241" s="11"/>
-      <c r="E241" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F241" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G241" s="11" t="s">
-        <v>12</v>
+      <c r="E241" s="11">
+        <v>-24252</v>
+      </c>
+      <c r="F241" s="11">
+        <v>-27234</v>
+      </c>
+      <c r="G241" s="11">
+        <v>-32812</v>
       </c>
       <c r="H241" s="11">
-        <v>-50438</v>
+        <v>-109437</v>
       </c>
       <c r="I241" s="11">
-        <v>-33153</v>
-      </c>
-    </row>
-    <row r="242" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-300351</v>
+      </c>
+    </row>
+    <row r="242" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B242" s="8" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="C242" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D242" s="9"/>
-      <c r="E242" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F242" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G242" s="9" t="s">
-        <v>12</v>
+      <c r="E242" s="9">
+        <v>-35821</v>
+      </c>
+      <c r="F242" s="9">
+        <v>-43225</v>
+      </c>
+      <c r="G242" s="9">
+        <v>-94981</v>
       </c>
       <c r="H242" s="9">
-        <v>-38250</v>
+        <v>-346434</v>
       </c>
       <c r="I242" s="9">
-        <v>-62779</v>
-      </c>
-    </row>
-    <row r="243" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-547039</v>
+      </c>
+    </row>
+    <row r="243" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B243" s="10" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="C243" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D243" s="11"/>
-      <c r="E243" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F243" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G243" s="11" t="s">
-        <v>12</v>
+      <c r="E243" s="11">
+        <v>-133602</v>
+      </c>
+      <c r="F243" s="11">
+        <v>-263990</v>
+      </c>
+      <c r="G243" s="11">
+        <v>-202828</v>
       </c>
       <c r="H243" s="11">
-        <v>-42953</v>
+        <v>-373765</v>
       </c>
       <c r="I243" s="11">
-        <v>-194038</v>
-      </c>
-    </row>
-    <row r="244" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-419455</v>
+      </c>
+    </row>
+    <row r="244" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B244" s="8" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="C244" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D244" s="9"/>
       <c r="E244" s="9" t="s">
@@ -6210,118 +6215,118 @@
       <c r="F244" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G244" s="9" t="s">
-        <v>12</v>
+      <c r="G244" s="9">
+        <v>0</v>
       </c>
       <c r="H244" s="9" t="s">
         <v>12</v>
       </c>
       <c r="I244" s="9">
-        <v>-227045</v>
-      </c>
-    </row>
-    <row r="245" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-353</v>
+      </c>
+    </row>
+    <row r="245" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B245" s="10" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C245" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D245" s="11"/>
-      <c r="E245" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F245" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G245" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H245" s="11" t="s">
-        <v>12</v>
+      <c r="E245" s="11">
+        <v>-358403</v>
+      </c>
+      <c r="F245" s="11">
+        <v>-479971</v>
+      </c>
+      <c r="G245" s="11">
+        <v>-480224</v>
+      </c>
+      <c r="H245" s="11">
+        <v>-649270</v>
       </c>
       <c r="I245" s="11">
-        <v>-3861</v>
-      </c>
-    </row>
-    <row r="246" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-3630990</v>
+      </c>
+    </row>
+    <row r="246" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B246" s="8" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D246" s="9"/>
-      <c r="E246" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F246" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G246" s="9" t="s">
-        <v>12</v>
+      <c r="E246" s="9">
+        <v>-242025</v>
+      </c>
+      <c r="F246" s="9">
+        <v>-247408</v>
+      </c>
+      <c r="G246" s="9">
+        <v>-259080</v>
       </c>
       <c r="H246" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I246" s="9">
-        <v>-29790</v>
-      </c>
-    </row>
-    <row r="247" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I246" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="247" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B247" s="10" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C247" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D247" s="11"/>
-      <c r="E247" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F247" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G247" s="11" t="s">
-        <v>12</v>
+      <c r="E247" s="11">
+        <v>0</v>
+      </c>
+      <c r="F247" s="11">
+        <v>0</v>
+      </c>
+      <c r="G247" s="11">
+        <v>1200</v>
       </c>
       <c r="H247" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I247" s="11">
-        <v>-94904</v>
-      </c>
-    </row>
-    <row r="248" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I247" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="248" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B248" s="8" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C248" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D248" s="9"/>
-      <c r="E248" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F248" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G248" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H248" s="9" t="s">
-        <v>12</v>
+      <c r="E248" s="9">
+        <v>0</v>
+      </c>
+      <c r="F248" s="9">
+        <v>0</v>
+      </c>
+      <c r="G248" s="9">
+        <v>0</v>
+      </c>
+      <c r="H248" s="9">
+        <v>0</v>
       </c>
       <c r="I248" s="9">
-        <v>-3164</v>
-      </c>
-    </row>
-    <row r="249" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B249" s="10" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C249" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D249" s="11"/>
       <c r="E249" s="11" t="s">
@@ -6330,106 +6335,166 @@
       <c r="F249" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G249" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H249" s="11" t="s">
-        <v>12</v>
+      <c r="G249" s="11">
+        <v>-50438</v>
+      </c>
+      <c r="H249" s="11">
+        <v>-33153</v>
       </c>
       <c r="I249" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B250" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C250" s="15"/>
-      <c r="D250" s="15"/>
-      <c r="E250" s="15">
-        <v>0</v>
-      </c>
-      <c r="F250" s="15">
-        <v>-794103</v>
-      </c>
-      <c r="G250" s="15">
-        <v>-1061828</v>
-      </c>
-      <c r="H250" s="15">
-        <v>-1200366</v>
-      </c>
-      <c r="I250" s="15">
-        <v>-2127640</v>
-      </c>
-    </row>
-    <row r="251" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B251" s="1"/>
-      <c r="C251" s="1"/>
-      <c r="D251" s="1"/>
-      <c r="E251" s="1"/>
-      <c r="F251" s="1"/>
-      <c r="G251" s="1"/>
-      <c r="H251" s="1"/>
-      <c r="I251" s="1"/>
-    </row>
-    <row r="252" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B252" s="1"/>
-      <c r="C252" s="1"/>
-      <c r="D252" s="1"/>
-      <c r="E252" s="1"/>
-      <c r="F252" s="1"/>
-      <c r="G252" s="1"/>
-      <c r="H252" s="1"/>
-      <c r="I252" s="1"/>
-    </row>
-    <row r="253" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B253" s="1"/>
-      <c r="C253" s="1"/>
-      <c r="D253" s="1"/>
-      <c r="E253" s="1"/>
-      <c r="F253" s="1"/>
-      <c r="G253" s="1"/>
-      <c r="H253" s="1"/>
-      <c r="I253" s="1"/>
-    </row>
-    <row r="254" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B254" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C254" s="6"/>
-      <c r="D254" s="6"/>
-      <c r="E254" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F254" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G254" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H254" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I254" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="255" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B255" s="1"/>
-      <c r="C255" s="1"/>
-      <c r="D255" s="1"/>
-      <c r="E255" s="1"/>
-      <c r="F255" s="1"/>
-      <c r="G255" s="1"/>
-      <c r="H255" s="1"/>
-      <c r="I255" s="1"/>
-    </row>
-    <row r="256" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-190305</v>
+      </c>
+    </row>
+    <row r="250" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B250" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C250" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D250" s="9"/>
+      <c r="E250" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F250" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G250" s="9">
+        <v>-38250</v>
+      </c>
+      <c r="H250" s="9">
+        <v>-62779</v>
+      </c>
+      <c r="I250" s="9">
+        <v>-160827</v>
+      </c>
+    </row>
+    <row r="251" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B251" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C251" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D251" s="11"/>
+      <c r="E251" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F251" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G251" s="11">
+        <v>-42953</v>
+      </c>
+      <c r="H251" s="11">
+        <v>-194038</v>
+      </c>
+      <c r="I251" s="11">
+        <v>-74833</v>
+      </c>
+    </row>
+    <row r="252" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B252" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C252" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D252" s="9"/>
+      <c r="E252" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F252" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G252" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H252" s="9">
+        <v>-227045</v>
+      </c>
+      <c r="I252" s="9">
+        <v>-350074</v>
+      </c>
+    </row>
+    <row r="253" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B253" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C253" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D253" s="11"/>
+      <c r="E253" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F253" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G253" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H253" s="11">
+        <v>-3861</v>
+      </c>
+      <c r="I253" s="11">
+        <v>-8812</v>
+      </c>
+    </row>
+    <row r="254" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B254" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C254" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D254" s="9"/>
+      <c r="E254" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F254" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G254" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H254" s="9">
+        <v>-29790</v>
+      </c>
+      <c r="I254" s="9">
+        <v>-45628</v>
+      </c>
+    </row>
+    <row r="255" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B255" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C255" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D255" s="11"/>
+      <c r="E255" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F255" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G255" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H255" s="11">
+        <v>-94904</v>
+      </c>
+      <c r="I255" s="11">
+        <v>-172987</v>
+      </c>
+    </row>
+    <row r="256" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B256" s="8" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="C256" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D256" s="9"/>
       <c r="E256" s="9" t="s">
@@ -6441,235 +6506,175 @@
       <c r="G256" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H256" s="9" t="s">
-        <v>12</v>
+      <c r="H256" s="9">
+        <v>-3164</v>
       </c>
       <c r="I256" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-3796</v>
+      </c>
+    </row>
+    <row r="257" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B257" s="10" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="C257" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D257" s="11"/>
       <c r="E257" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F257" s="11">
-        <v>35372</v>
-      </c>
-      <c r="G257" s="11">
-        <v>46946</v>
+      <c r="F257" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G257" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H257" s="11">
-        <v>60073</v>
+        <v>0</v>
       </c>
       <c r="I257" s="11">
-        <v>118335</v>
-      </c>
-    </row>
-    <row r="258" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-954</v>
+      </c>
+    </row>
+    <row r="258" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B258" s="8" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="C258" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D258" s="9"/>
       <c r="E258" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F258" s="9">
-        <v>18561</v>
-      </c>
-      <c r="G258" s="9">
-        <v>55773</v>
-      </c>
-      <c r="H258" s="9">
-        <v>94980</v>
+      <c r="F258" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G258" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H258" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I258" s="9">
-        <v>321053</v>
-      </c>
-    </row>
-    <row r="259" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B259" s="10" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="C259" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D259" s="11"/>
       <c r="E259" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F259" s="11">
-        <v>65786</v>
-      </c>
-      <c r="G259" s="11">
-        <v>171221</v>
-      </c>
-      <c r="H259" s="11">
-        <v>104123</v>
+      <c r="F259" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G259" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H259" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="I259" s="11">
-        <v>409105</v>
-      </c>
-    </row>
-    <row r="260" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B260" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C260" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D260" s="9"/>
-      <c r="E260" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F260" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G260" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H260" s="9">
         <v>0</v>
       </c>
-      <c r="I260" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="261" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B261" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C261" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D261" s="11"/>
-      <c r="E261" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F261" s="11">
-        <v>128675</v>
-      </c>
-      <c r="G261" s="11">
-        <v>241248</v>
-      </c>
-      <c r="H261" s="11">
-        <v>397843</v>
-      </c>
-      <c r="I261" s="11">
-        <v>556091</v>
-      </c>
-    </row>
-    <row r="262" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B262" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C262" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D262" s="9"/>
-      <c r="E262" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F262" s="9">
-        <v>112849</v>
-      </c>
-      <c r="G262" s="9">
-        <v>189394</v>
-      </c>
-      <c r="H262" s="9">
-        <v>493175</v>
-      </c>
-      <c r="I262" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="263" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B263" s="10" t="s">
+    </row>
+    <row r="260" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B260" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C263" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D263" s="11"/>
-      <c r="E263" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F263" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G263" s="11">
-        <v>-29569</v>
-      </c>
-      <c r="H263" s="11">
-        <v>-848</v>
-      </c>
-      <c r="I263" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="264" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B264" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C264" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D264" s="9"/>
-      <c r="E264" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F264" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G264" s="9">
-        <v>0</v>
-      </c>
-      <c r="H264" s="9">
-        <v>0</v>
-      </c>
-      <c r="I264" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B265" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C265" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D265" s="11"/>
-      <c r="E265" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F265" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G265" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H265" s="11">
-        <v>23849</v>
-      </c>
-      <c r="I265" s="11">
-        <v>35754</v>
-      </c>
-    </row>
-    <row r="266" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C260" s="15"/>
+      <c r="D260" s="15"/>
+      <c r="E260" s="15">
+        <v>-794103</v>
+      </c>
+      <c r="F260" s="15">
+        <v>-1061828</v>
+      </c>
+      <c r="G260" s="15">
+        <v>-1200366</v>
+      </c>
+      <c r="H260" s="15">
+        <v>-2127640</v>
+      </c>
+      <c r="I260" s="15">
+        <v>-5906404</v>
+      </c>
+    </row>
+    <row r="261" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
+      <c r="E261" s="1"/>
+      <c r="F261" s="1"/>
+      <c r="G261" s="1"/>
+      <c r="H261" s="1"/>
+      <c r="I261" s="1"/>
+    </row>
+    <row r="262" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
+      <c r="E262" s="1"/>
+      <c r="F262" s="1"/>
+      <c r="G262" s="1"/>
+      <c r="H262" s="1"/>
+      <c r="I262" s="1"/>
+    </row>
+    <row r="263" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
+      <c r="E263" s="1"/>
+      <c r="F263" s="1"/>
+      <c r="G263" s="1"/>
+      <c r="H263" s="1"/>
+      <c r="I263" s="1"/>
+    </row>
+    <row r="264" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B264" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C264" s="6"/>
+      <c r="D264" s="6"/>
+      <c r="E264" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F264" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G264" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H264" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I264" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="265" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B265" s="1"/>
+      <c r="C265" s="1"/>
+      <c r="D265" s="1"/>
+      <c r="E265" s="1"/>
+      <c r="F265" s="1"/>
+      <c r="G265" s="1"/>
+      <c r="H265" s="1"/>
+      <c r="I265" s="1"/>
+    </row>
+    <row r="266" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B266" s="8" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C266" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D266" s="9"/>
       <c r="E266" s="9" t="s">
@@ -6682,90 +6687,90 @@
         <v>12</v>
       </c>
       <c r="H266" s="9">
-        <v>9208</v>
-      </c>
-      <c r="I266" s="9">
-        <v>61988</v>
-      </c>
-    </row>
-    <row r="267" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I266" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="267" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B267" s="10" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="C267" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D267" s="11"/>
-      <c r="E267" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F267" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G267" s="11" t="s">
-        <v>12</v>
+      <c r="E267" s="11">
+        <v>35372</v>
+      </c>
+      <c r="F267" s="11">
+        <v>46946</v>
+      </c>
+      <c r="G267" s="11">
+        <v>60073</v>
       </c>
       <c r="H267" s="11">
-        <v>58227</v>
+        <v>118335</v>
       </c>
       <c r="I267" s="11">
-        <v>149629</v>
-      </c>
-    </row>
-    <row r="268" spans="2:9" x14ac:dyDescent="0.25">
+        <v>185472</v>
+      </c>
+    </row>
+    <row r="268" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B268" s="8" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C268" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D268" s="9"/>
-      <c r="E268" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F268" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G268" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H268" s="9" t="s">
-        <v>12</v>
+      <c r="E268" s="9">
+        <v>18561</v>
+      </c>
+      <c r="F268" s="9">
+        <v>55773</v>
+      </c>
+      <c r="G268" s="9">
+        <v>94980</v>
+      </c>
+      <c r="H268" s="9">
+        <v>321053</v>
       </c>
       <c r="I268" s="9">
-        <v>349717</v>
-      </c>
-    </row>
-    <row r="269" spans="2:9" x14ac:dyDescent="0.25">
+        <v>417192</v>
+      </c>
+    </row>
+    <row r="269" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B269" s="10" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="C269" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D269" s="11"/>
-      <c r="E269" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F269" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G269" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H269" s="11" t="s">
-        <v>12</v>
+      <c r="E269" s="11">
+        <v>65786</v>
+      </c>
+      <c r="F269" s="11">
+        <v>171221</v>
+      </c>
+      <c r="G269" s="11">
+        <v>104123</v>
+      </c>
+      <c r="H269" s="11">
+        <v>409105</v>
       </c>
       <c r="I269" s="11">
-        <v>6149</v>
-      </c>
-    </row>
-    <row r="270" spans="2:9" x14ac:dyDescent="0.25">
+        <v>456330</v>
+      </c>
+    </row>
+    <row r="270" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B270" s="8" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="C270" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D270" s="9"/>
       <c r="E270" s="9" t="s">
@@ -6774,108 +6779,396 @@
       <c r="F270" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G270" s="9" t="s">
-        <v>12</v>
+      <c r="G270" s="9">
+        <v>0</v>
       </c>
       <c r="H270" s="9" t="s">
         <v>12</v>
       </c>
       <c r="I270" s="9">
-        <v>30916</v>
-      </c>
-    </row>
-    <row r="271" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="271" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B271" s="10" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="C271" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D271" s="11"/>
-      <c r="E271" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F271" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G271" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H271" s="11" t="s">
-        <v>12</v>
+      <c r="E271" s="11">
+        <v>128675</v>
+      </c>
+      <c r="F271" s="11">
+        <v>241248</v>
+      </c>
+      <c r="G271" s="11">
+        <v>397843</v>
+      </c>
+      <c r="H271" s="11">
+        <v>556091</v>
       </c>
       <c r="I271" s="11">
-        <v>128847</v>
-      </c>
-    </row>
-    <row r="272" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1712208</v>
+      </c>
+    </row>
+    <row r="272" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B272" s="8" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="C272" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D272" s="9"/>
-      <c r="E272" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F272" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G272" s="9" t="s">
-        <v>12</v>
+      <c r="E272" s="9">
+        <v>112849</v>
+      </c>
+      <c r="F272" s="9">
+        <v>189394</v>
+      </c>
+      <c r="G272" s="9">
+        <v>493175</v>
       </c>
       <c r="H272" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I272" s="9">
-        <v>2087</v>
-      </c>
-    </row>
-    <row r="273" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I272" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="273" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B273" s="10" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C273" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D273" s="11"/>
       <c r="E273" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F273" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G273" s="11" t="s">
-        <v>12</v>
+      <c r="F273" s="11">
+        <v>-29569</v>
+      </c>
+      <c r="G273" s="11">
+        <v>-848</v>
       </c>
       <c r="H273" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I273" s="11">
+      <c r="I273" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="274" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B274" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C274" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D274" s="9"/>
+      <c r="E274" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F274" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B274" s="14" t="s">
+      <c r="G274" s="9">
+        <v>0</v>
+      </c>
+      <c r="H274" s="9">
+        <v>0</v>
+      </c>
+      <c r="I274" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B275" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C275" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D275" s="11"/>
+      <c r="E275" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F275" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G275" s="11">
+        <v>23849</v>
+      </c>
+      <c r="H275" s="11">
+        <v>35754</v>
+      </c>
+      <c r="I275" s="11">
+        <v>258485</v>
+      </c>
+    </row>
+    <row r="276" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B276" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C276" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D276" s="9"/>
+      <c r="E276" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F276" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G276" s="9">
+        <v>9208</v>
+      </c>
+      <c r="H276" s="9">
+        <v>61988</v>
+      </c>
+      <c r="I276" s="9">
+        <v>175836</v>
+      </c>
+    </row>
+    <row r="277" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B277" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C277" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D277" s="11"/>
+      <c r="E277" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F277" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G277" s="11">
+        <v>58227</v>
+      </c>
+      <c r="H277" s="11">
+        <v>149629</v>
+      </c>
+      <c r="I277" s="11">
+        <v>131489</v>
+      </c>
+    </row>
+    <row r="278" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B278" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C278" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D278" s="9"/>
+      <c r="E278" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F278" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G278" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H278" s="9">
+        <v>349717</v>
+      </c>
+      <c r="I278" s="9">
+        <v>347576</v>
+      </c>
+    </row>
+    <row r="279" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B279" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C279" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D279" s="11"/>
+      <c r="E279" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F279" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G279" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H279" s="11">
+        <v>6149</v>
+      </c>
+      <c r="I279" s="11">
+        <v>9063</v>
+      </c>
+    </row>
+    <row r="280" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B280" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C280" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D280" s="9"/>
+      <c r="E280" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F280" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G280" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H280" s="9">
+        <v>30916</v>
+      </c>
+      <c r="I280" s="9">
+        <v>90300</v>
+      </c>
+    </row>
+    <row r="281" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B281" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C281" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D281" s="11"/>
+      <c r="E281" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F281" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G281" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H281" s="11">
+        <v>128847</v>
+      </c>
+      <c r="I281" s="11">
+        <v>120510</v>
+      </c>
+    </row>
+    <row r="282" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B282" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C282" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D282" s="9"/>
+      <c r="E282" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F282" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G282" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H282" s="9">
+        <v>2087</v>
+      </c>
+      <c r="I282" s="9">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="283" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B283" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C283" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D283" s="11"/>
+      <c r="E283" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F283" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G283" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H283" s="11">
+        <v>0</v>
+      </c>
+      <c r="I283" s="11">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="284" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B284" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C274" s="15"/>
-      <c r="D274" s="15"/>
-      <c r="E274" s="15">
+      <c r="C284" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D284" s="9"/>
+      <c r="E284" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F284" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G284" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H284" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I284" s="9">
         <v>0</v>
       </c>
-      <c r="F274" s="15">
+    </row>
+    <row r="285" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B285" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C285" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D285" s="11"/>
+      <c r="E285" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F285" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G285" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H285" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I285" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B286" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C286" s="15"/>
+      <c r="D286" s="15"/>
+      <c r="E286" s="15">
         <v>361243</v>
       </c>
-      <c r="G274" s="15">
+      <c r="F286" s="15">
         <v>675013</v>
       </c>
-      <c r="H274" s="15">
+      <c r="G286" s="15">
         <v>1240630</v>
       </c>
-      <c r="I274" s="15">
+      <c r="H286" s="15">
         <v>2169671</v>
+      </c>
+      <c r="I286" s="15">
+        <v>3913401</v>
       </c>
     </row>
   </sheetData>
